--- a/csv/Users.xlsx
+++ b/csv/Users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/csv/Users.xlsx
+++ b/csv/Users.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>natural landscape; amusement park; historical building</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,12 @@
   <si>
     <t>stay at home.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.qqc5.com/uploads/allimg/140726/1-140H6103113.jpg</t>
+  </si>
+  <si>
+    <t>http://p4.gexing.com/G1/M00/63/B4/rBACE1LOnMrQ-S4iAAAVqwHP6VE245_200x200_3.jpg?recache=20131109</t>
   </si>
 </sst>
 </file>
@@ -503,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -524,7 +530,7 @@
     <col min="12" max="12" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1">
         <v>1</v>
       </c>
@@ -543,8 +549,11 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2</v>
       </c>
@@ -562,6 +571,9 @@
       </c>
       <c r="F2" t="s">
         <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
